--- a/biology/Botanique/Micropus/Micropus.xlsx
+++ b/biology/Botanique/Micropus/Micropus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micropus, les Micropes, est un genre de plantes à fleurs annuelles de la famille des Asteraceae, comprenant des espèces originaires de la région méditerranéenne et de la côte ouest de l'Amérique du Nord.
 </t>
@@ -511,21 +523,23 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 novembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 novembre 2020) :
 Micropus flavicans Lag., 1816
 Micropus globifer DC.
 Micropus multicaulis Dubois
 Micropus supinus L.
 Micropus tenellus Walp.
-Selon Catalogue of Life                                   (12 novembre 2020)[3] :
+Selon Catalogue of Life                                   (12 novembre 2020) :
 Micropus supinus L.
-Selon Plants of the World online (POWO)                (12 novembre 2020)[4] :
+Selon Plants of the World online (POWO)                (12 novembre 2020) :
 Micropus amphibolus A.Gray
 Micropus californicus Fisch. &amp; C.A.Mey.
 Micropus supinus L.
-Selon Tropicos                                           (12 novembre 2020)[5] (liste brute contenant des synonymes) :
+Selon Tropicos                                           (12 novembre 2020) (liste brute contenant des synonymes) :
 Micropus amphibolus A. Gray, 1882
 Micropus angustifolius Nutt., 1840
 Micropus bombycinus Lag., 1816
